--- a/utils/localisation_script/excel_to_json/be/Bengali Additional.xlsx
+++ b/utils/localisation_script/excel_to_json/be/Bengali Additional.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/be/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7056DB3-6252-9D47-84CA-9B7B5D49BA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Additional" sheetId="1" r:id="rId4"/>
+    <sheet name="Additional" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miXLnZyrKDV3NSlXh+8SdwoRdp4qg=="/>
@@ -225,60 +234,63 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Open Sans"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF980000"/>
       <name val="Open Sans"/>
     </font>
-    <font/>
     <font>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Open Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFC00000"/>
       <name val="Open Sans"/>
     </font>
@@ -288,7 +300,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -304,19 +316,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -326,6 +347,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -340,87 +362,92 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -610,29 +637,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="21.71"/>
-    <col customWidth="1" min="3" max="3" width="17.43"/>
-    <col customWidth="1" min="4" max="4" width="52.0"/>
-    <col customWidth="1" min="5" max="5" width="29.71"/>
-    <col customWidth="1" min="6" max="6" width="71.71"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -660,19 +689,19 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3"/>
@@ -696,7 +725,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -704,7 +733,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
@@ -732,65 +761,66 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="23"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -802,29 +832,29 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -836,29 +866,29 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -870,62 +900,62 @@
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -947,15 +977,15 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="2"/>
@@ -979,15 +1009,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="2"/>
@@ -1011,15 +1041,15 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="2"/>
@@ -1043,15 +1073,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="2"/>
@@ -1075,15 +1105,15 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2"/>
@@ -1107,13 +1137,13 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1135,19 +1165,19 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="2"/>
@@ -1171,15 +1201,15 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="2"/>
@@ -1203,15 +1233,15 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="2"/>
@@ -1235,13 +1265,13 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1263,17 +1293,17 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="2"/>
@@ -1297,13 +1327,13 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1325,15 +1355,15 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="15" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="2"/>
@@ -1357,13 +1387,13 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1385,13 +1415,13 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1413,19 +1443,19 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G26" s="2"/>
@@ -1449,13 +1479,13 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="2"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1477,17 +1507,17 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="2"/>
@@ -1511,13 +1541,13 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1539,22 +1569,22 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H30" s="1"/>
@@ -1577,20 +1607,20 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H31" s="1"/>
@@ -1613,18 +1643,18 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H32" s="1"/>
@@ -1647,20 +1677,20 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H33" s="1"/>
@@ -1683,18 +1713,18 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="1"/>
@@ -1717,13 +1747,13 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="2"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1745,24 +1775,24 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="28.5" customHeight="1">
+    <row r="36" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1783,13 +1813,13 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="2"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1811,13 +1841,13 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="2"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1839,13 +1869,13 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="2"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1867,13 +1897,13 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1895,13 +1925,13 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1923,13 +1953,13 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1951,13 +1981,13 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1979,13 +2009,13 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2007,13 +2037,13 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2035,7 +2065,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2063,7 +2093,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2091,7 +2121,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2119,7 +2149,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2147,7 +2177,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2175,7 +2205,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2203,7 +2233,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2231,7 +2261,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2259,7 +2289,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2287,7 +2317,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2315,7 +2345,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2343,7 +2373,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2371,7 +2401,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2399,7 +2429,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2427,7 +2457,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2455,7 +2485,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2483,7 +2513,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2511,7 +2541,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2539,7 +2569,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2567,7 +2597,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2595,7 +2625,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2623,7 +2653,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2651,7 +2681,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2679,7 +2709,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2707,7 +2737,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2735,7 +2765,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2763,7 +2793,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2791,7 +2821,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2819,7 +2849,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2847,7 +2877,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2875,7 +2905,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2903,7 +2933,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2931,7 +2961,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2959,7 +2989,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2987,7 +3017,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3015,7 +3045,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3043,7 +3073,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3071,7 +3101,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3099,7 +3129,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3127,7 +3157,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3155,7 +3185,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3183,7 +3213,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3211,7 +3241,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3239,7 +3269,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3267,7 +3297,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3295,7 +3325,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3323,7 +3353,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3351,7 +3381,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3379,7 +3409,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3407,7 +3437,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3435,7 +3465,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3463,7 +3493,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3491,7 +3521,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3519,7 +3549,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3547,7 +3577,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3575,7 +3605,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3603,7 +3633,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3631,7 +3661,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3659,7 +3689,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3687,7 +3717,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3715,7 +3745,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3743,7 +3773,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3771,7 +3801,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3799,7 +3829,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3827,7 +3857,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3855,7 +3885,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3883,7 +3913,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3911,7 +3941,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3939,7 +3969,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3967,7 +3997,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3995,7 +4025,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4023,7 +4053,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4051,7 +4081,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4079,7 +4109,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4107,7 +4137,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4135,7 +4165,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4163,7 +4193,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4191,7 +4221,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4219,7 +4249,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4247,7 +4277,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4275,7 +4305,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4303,7 +4333,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4331,7 +4361,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4359,7 +4389,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4387,7 +4417,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4415,7 +4445,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4443,7 +4473,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4471,7 +4501,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4499,7 +4529,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4527,7 +4557,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4555,7 +4585,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4583,7 +4613,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4611,7 +4641,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4639,7 +4669,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4667,7 +4697,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4695,7 +4725,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4723,7 +4753,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4751,7 +4781,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4779,7 +4809,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4807,7 +4837,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4835,7 +4865,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4863,7 +4893,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4891,7 +4921,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4919,7 +4949,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4947,7 +4977,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4975,7 +5005,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5003,7 +5033,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5031,7 +5061,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5059,7 +5089,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5087,7 +5117,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5115,7 +5145,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5143,7 +5173,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5171,7 +5201,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5199,7 +5229,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5227,7 +5257,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5255,7 +5285,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5283,7 +5313,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5311,7 +5341,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5339,7 +5369,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5367,7 +5397,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5395,7 +5425,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5423,7 +5453,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5451,7 +5481,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5479,7 +5509,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5507,7 +5537,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5535,7 +5565,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5563,7 +5593,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5591,7 +5621,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5619,7 +5649,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5647,7 +5677,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5675,7 +5705,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5703,7 +5733,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5731,7 +5761,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5759,7 +5789,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5787,7 +5817,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5815,7 +5845,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5843,7 +5873,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5871,7 +5901,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5899,7 +5929,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5927,7 +5957,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5955,7 +5985,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5983,7 +6013,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6011,7 +6041,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6039,7 +6069,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6067,7 +6097,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6095,7 +6125,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6123,7 +6153,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6151,7 +6181,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6179,7 +6209,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6207,7 +6237,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6235,7 +6265,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6263,7 +6293,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6291,7 +6321,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6319,7 +6349,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6347,7 +6377,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6375,7 +6405,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6403,7 +6433,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6431,7 +6461,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6459,7 +6489,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6487,7 +6517,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6515,7 +6545,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6543,7 +6573,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6571,7 +6601,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6599,7 +6629,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6627,7 +6657,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6655,7 +6685,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6683,7 +6713,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6711,7 +6741,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6739,7 +6769,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6767,7 +6797,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6795,7 +6825,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6823,7 +6853,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6851,7 +6881,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6879,7 +6909,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6907,7 +6937,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6935,7 +6965,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6963,7 +6993,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6991,7 +7021,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7019,7 +7049,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7047,7 +7077,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7075,7 +7105,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7103,7 +7133,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7131,7 +7161,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7159,7 +7189,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7187,7 +7217,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7215,7 +7245,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7243,7 +7273,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7271,7 +7301,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7299,7 +7329,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7327,7 +7357,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7355,7 +7385,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7383,778 +7413,776 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>